--- a/biology/Botanique/Potamogetonaceae/Potamogetonaceae.xlsx
+++ b/biology/Botanique/Potamogetonaceae/Potamogetonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Potamogétonacées  est formée de plantes monocotylédones. Ce sont des plantes herbacées aquatiques, généralement pérennes, submergées ou à feuilles flottantes des régions froides à tropicales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Potamogeton qui dérive du Grec et latin, potamos, « fleuve », et geitôn, « voisin », plante  "voisine du fleuve"[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Potamogeton qui dérive du Grec et latin, potamos, « fleuve », et geitôn, « voisin », plante  "voisine du fleuve",.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille, en y incorporant les Zannichelliaceae et excludant les Ruppiaceae, dans l'ordre des Alismatales. Ici, la famille comprend 7 genres.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Potamogeton (Potamots) sont des plantes aquatiques, à feuilles flottantes ou submergées. Leurs épis florifères sont dressés et aériens. Ils forment de véritables prairies aquatiques. Le genre a donné de nombreuses espèces de port analogue, ayant des  feuilles étroites ou larges.
 Un des plus communs est Potamogeton natans.
@@ -605,29 +623,31 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Althenia F.Petit (1829)
 genre Groenlandia J.Gay (1854)
 genre Lepilaena J.Drumm. ex Harv. (1855)
 genre Potamogeton L. (1753)
 genre Stuckenia Börner (1912)
 genre Zannichellia P.Micheli ex L. (1753)
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Groenlandia
 genre Potamogeton
 genre Ruppia
-Selon NCBI  (15 avr. 2010)[5] :
+Selon NCBI  (15 avr. 2010) :
 genre Groenlandia
 genre Lepilaena
 genre Potamogeton
 genre Stuckenia
 genre Zannichellia
-Selon DELTA Angio           (15 avr. 2010)[6] :
+Selon DELTA Angio           (15 avr. 2010) :
 genre Groenlandia
 genre Potamogeton
-Selon ITIS      (15 avr. 2010)[7] :
+Selon ITIS      (15 avr. 2010) :
 genre Potamogeton L.
 genre Stuckenia Börner</t>
         </is>
